--- a/PhoenixCI/Excel_Template/30393.xlsx
+++ b/PhoenixCI/Excel_Template/30393.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C54F010-92B1-4103-932F-5EE3E3660561}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFDEFB5-46A4-4DAE-AF54-F3D79F13E9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="30393_1(RHF)" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1059,13 +1058,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1091,6 +1093,9 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1145,10 +1150,13 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,13 +1239,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,19 +1258,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1279,7 @@
     <xf numFmtId="182" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,10 +1294,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,7 +1484,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-190B-4C8E-85C3-6F67BD10D737}"/>
+              <c16:uniqueId val="{00000000-F1D2-4EFD-A39F-D0E0859A3189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1526,7 +1534,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-190B-4C8E-85C3-6F67BD10D737}"/>
+              <c16:uniqueId val="{00000001-F1D2-4EFD-A39F-D0E0859A3189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1539,7 +1547,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="743642184"/>
+        <c:axId val="541800424"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1594,7 +1602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-190B-4C8E-85C3-6F67BD10D737}"/>
+              <c16:uniqueId val="{00000002-F1D2-4EFD-A39F-D0E0859A3189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,7 +1653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-190B-4C8E-85C3-6F67BD10D737}"/>
+              <c16:uniqueId val="{00000003-F1D2-4EFD-A39F-D0E0859A3189}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,7 +1671,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743642184"/>
+        <c:axId val="541800424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1763,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743642184"/>
+        <c:crossAx val="541800424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1983,7 +1991,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E447-4DB2-B9B4-B0E89443FE95}"/>
+              <c16:uniqueId val="{00000000-9680-466C-A8A8-3DA623B0DFDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,7 +2041,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E447-4DB2-B9B4-B0E89443FE95}"/>
+              <c16:uniqueId val="{00000001-9680-466C-A8A8-3DA623B0DFDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2046,7 +2054,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="743604464"/>
+        <c:axId val="542256792"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -2101,7 +2109,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E447-4DB2-B9B4-B0E89443FE95}"/>
+              <c16:uniqueId val="{00000002-9680-466C-A8A8-3DA623B0DFDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2152,7 +2160,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E447-4DB2-B9B4-B0E89443FE95}"/>
+              <c16:uniqueId val="{00000003-9680-466C-A8A8-3DA623B0DFDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,7 +2178,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743604464"/>
+        <c:axId val="542256792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2270,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743604464"/>
+        <c:crossAx val="542256792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2500,7 +2508,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000000-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2520,7 +2528,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000001-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2540,7 +2548,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000002-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2560,7 +2568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000003-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2580,7 +2588,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000004-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2600,7 +2608,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000005-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2620,7 +2628,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-CAAC-49D0-A1D4-644D652E3D83}"/>
+                <c16:uniqueId val="{00000006-DCD8-4044-8F0D-890DA57DEDF9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2667,7 +2675,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000000-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2713,7 +2721,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000001-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2759,7 +2767,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000002-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2805,7 +2813,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000003-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2851,7 +2859,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000004-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2897,7 +2905,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-CAAC-49D0-A1D4-644D652E3D83}"/>
+                  <c16:uniqueId val="{00000005-DCD8-4044-8F0D-890DA57DEDF9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2999,7 +3007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-CAAC-49D0-A1D4-644D652E3D83}"/>
+              <c16:uniqueId val="{00000007-DCD8-4044-8F0D-890DA57DEDF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3192,7 +3200,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000000-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3212,7 +3220,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000001-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3232,7 +3240,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000002-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3252,7 +3260,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000003-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3272,7 +3280,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000004-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3292,7 +3300,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000005-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3312,7 +3320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-C370-460F-BA9F-AC8663DFA99A}"/>
+                <c16:uniqueId val="{00000006-DAB5-49B2-8C6D-59778E01B34C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3359,7 +3367,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000000-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3405,7 +3413,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000001-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3451,7 +3459,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000002-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3497,7 +3505,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000003-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3543,7 +3551,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000004-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3589,7 +3597,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C370-460F-BA9F-AC8663DFA99A}"/>
+                  <c16:uniqueId val="{00000005-DAB5-49B2-8C6D-59778E01B34C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3691,7 +3699,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C370-460F-BA9F-AC8663DFA99A}"/>
+              <c16:uniqueId val="{00000007-DAB5-49B2-8C6D-59778E01B34C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3884,7 +3892,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000000-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3904,7 +3912,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000001-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3924,7 +3932,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000002-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3944,7 +3952,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000003-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3964,7 +3972,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000004-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3984,7 +3992,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000005-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4004,7 +4012,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-59B7-4851-AE41-D53728BFB7BA}"/>
+                <c16:uniqueId val="{00000006-A24E-4ECC-9375-C4761C2B809B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4051,7 +4059,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000000-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4097,7 +4105,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000001-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4143,7 +4151,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000002-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4189,7 +4197,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000003-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4235,7 +4243,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000004-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4281,7 +4289,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-59B7-4851-AE41-D53728BFB7BA}"/>
+                  <c16:uniqueId val="{00000005-A24E-4ECC-9375-C4761C2B809B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4383,7 +4391,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-59B7-4851-AE41-D53728BFB7BA}"/>
+              <c16:uniqueId val="{00000007-A24E-4ECC-9375-C4761C2B809B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4576,7 +4584,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000000-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4596,7 +4604,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000001-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4616,7 +4624,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000002-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4636,7 +4644,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000003-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4656,7 +4664,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000004-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4676,7 +4684,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000005-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4696,7 +4704,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-4E72-4852-A3BA-A0077C2362EE}"/>
+                <c16:uniqueId val="{00000006-1925-4A48-BF47-7214E0AF6C94}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4743,7 +4751,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000000-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4789,7 +4797,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000001-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4835,7 +4843,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000002-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4881,7 +4889,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000003-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4927,7 +4935,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000004-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4973,7 +4981,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-4E72-4852-A3BA-A0077C2362EE}"/>
+                  <c16:uniqueId val="{00000005-1925-4A48-BF47-7214E0AF6C94}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5075,7 +5083,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4E72-4852-A3BA-A0077C2362EE}"/>
+              <c16:uniqueId val="{00000007-1925-4A48-BF47-7214E0AF6C94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5258,7 +5266,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7549-4327-A08B-3078E50300AA}"/>
+              <c16:uniqueId val="{00000000-0FFD-4766-9E25-0A6F07DDAFAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5308,7 +5316,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7549-4327-A08B-3078E50300AA}"/>
+              <c16:uniqueId val="{00000001-0FFD-4766-9E25-0A6F07DDAFAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5321,7 +5329,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="743653336"/>
+        <c:axId val="541932272"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -5376,7 +5384,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7549-4327-A08B-3078E50300AA}"/>
+              <c16:uniqueId val="{00000002-0FFD-4766-9E25-0A6F07DDAFAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5427,7 +5435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7549-4327-A08B-3078E50300AA}"/>
+              <c16:uniqueId val="{00000003-0FFD-4766-9E25-0A6F07DDAFAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5445,7 +5453,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743653336"/>
+        <c:axId val="541932272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5545,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743653336"/>
+        <c:crossAx val="541932272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -5775,7 +5783,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000000-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5795,7 +5803,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000001-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5815,7 +5823,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000002-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5835,7 +5843,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000003-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5855,7 +5863,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000004-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5875,7 +5883,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000005-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5895,7 +5903,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-ACF9-42B1-A19D-C94417EBECAF}"/>
+                <c16:uniqueId val="{00000006-7933-438F-BF35-8E2EAA57F520}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5942,7 +5950,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000000-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5988,7 +5996,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000001-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6034,7 +6042,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000002-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6080,7 +6088,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000003-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6126,7 +6134,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000004-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6172,7 +6180,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-ACF9-42B1-A19D-C94417EBECAF}"/>
+                  <c16:uniqueId val="{00000005-7933-438F-BF35-8E2EAA57F520}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6274,7 +6282,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-ACF9-42B1-A19D-C94417EBECAF}"/>
+              <c16:uniqueId val="{00000007-7933-438F-BF35-8E2EAA57F520}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6467,7 +6475,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000000-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6487,7 +6495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000001-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6507,7 +6515,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000002-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6527,7 +6535,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000003-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6547,7 +6555,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000004-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6567,7 +6575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000005-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6587,7 +6595,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-004F-4C8B-AC80-67DE0F133E3C}"/>
+                <c16:uniqueId val="{00000006-DA2B-423D-9776-D97F095513E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6634,7 +6642,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000000-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6680,7 +6688,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000001-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6726,7 +6734,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000002-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6772,7 +6780,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000003-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6818,7 +6826,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000004-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6864,7 +6872,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-004F-4C8B-AC80-67DE0F133E3C}"/>
+                  <c16:uniqueId val="{00000005-DA2B-423D-9776-D97F095513E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6966,7 +6974,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-004F-4C8B-AC80-67DE0F133E3C}"/>
+              <c16:uniqueId val="{00000007-DA2B-423D-9776-D97F095513E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7149,7 +7157,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FC2-4A3E-ADC7-CEC87054B795}"/>
+              <c16:uniqueId val="{00000000-5D86-46E3-A27D-C9D59BE4B50E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7199,7 +7207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4FC2-4A3E-ADC7-CEC87054B795}"/>
+              <c16:uniqueId val="{00000001-5D86-46E3-A27D-C9D59BE4B50E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7212,7 +7220,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="743660224"/>
+        <c:axId val="372625008"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -7267,7 +7275,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4FC2-4A3E-ADC7-CEC87054B795}"/>
+              <c16:uniqueId val="{00000002-5D86-46E3-A27D-C9D59BE4B50E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7318,7 +7326,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4FC2-4A3E-ADC7-CEC87054B795}"/>
+              <c16:uniqueId val="{00000003-5D86-46E3-A27D-C9D59BE4B50E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7336,7 +7344,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743660224"/>
+        <c:axId val="372625008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7428,7 +7436,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743660224"/>
+        <c:crossAx val="372625008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -7666,7 +7674,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000000-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7686,7 +7694,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000001-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7706,7 +7714,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000002-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7726,7 +7734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000003-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7746,7 +7754,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000004-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7766,7 +7774,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000005-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7786,7 +7794,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                <c16:uniqueId val="{00000006-BF09-4A36-BB59-40000325E7C4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7833,7 +7841,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000000-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7879,7 +7887,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000001-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7925,7 +7933,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000002-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7971,7 +7979,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000003-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8017,7 +8025,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000004-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8063,7 +8071,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+                  <c16:uniqueId val="{00000005-BF09-4A36-BB59-40000325E7C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8165,7 +8173,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-13A4-4DA7-B99D-E8FC4A0949AE}"/>
+              <c16:uniqueId val="{00000007-BF09-4A36-BB59-40000325E7C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8358,7 +8366,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000000-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8378,7 +8386,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000001-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8398,7 +8406,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000002-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8418,7 +8426,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000003-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8438,7 +8446,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000004-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8458,7 +8466,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000005-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8478,7 +8486,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-834A-4B24-986A-A14BE3C500EF}"/>
+                <c16:uniqueId val="{00000006-D45F-4CC2-A18B-EB0AC6123C1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8525,7 +8533,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000000-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8571,7 +8579,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000001-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8617,7 +8625,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000002-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8663,7 +8671,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000003-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8709,7 +8717,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000004-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8755,7 +8763,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-834A-4B24-986A-A14BE3C500EF}"/>
+                  <c16:uniqueId val="{00000005-D45F-4CC2-A18B-EB0AC6123C1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8857,7 +8865,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-834A-4B24-986A-A14BE3C500EF}"/>
+              <c16:uniqueId val="{00000007-D45F-4CC2-A18B-EB0AC6123C1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9025,7 +9033,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180AD098-E9A9-499A-9A8D-8B08865EF9A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBBA19D-1CC9-4E6B-A7B7-A7584701040D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9058,7 +9066,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92EC613-0E64-4574-912C-C41799F73538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DF18C5-72EF-4AF0-B94C-4D569D06843F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9101,7 +9109,7 @@
         <xdr:cNvPr id="18446" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A95A0D-7763-4F12-8920-57EA6DF5072E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CC792B-E625-44F1-93B9-14D2CF2F6FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9144,7 +9152,7 @@
         <xdr:cNvPr id="20494" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFDE90B-A5DF-4DEC-8A3C-85123CF779A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB511EE-4C1C-48D2-9475-63EBB4608A1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9187,7 +9195,7 @@
         <xdr:cNvPr id="3086" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2602D603-4C56-426A-AB7A-3E6348916386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D527C5-2583-45D6-AA0E-3894AA5AEF51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9230,7 +9238,7 @@
         <xdr:cNvPr id="5134" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7120BB-546F-4089-9467-908707062EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FC7620-8F94-48F0-A6D9-CD50679865C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9263,7 +9271,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263CA4B8-56E0-48E7-9F34-476BD411FE3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260C0B5-3D7B-440E-B226-CCAB37F79E09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9306,7 +9314,7 @@
         <xdr:cNvPr id="8206" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A37D75-41DE-4A08-B8A3-5C15F54EA2CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B7B78-4790-40C3-9F4D-6CC20B1B5E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9349,7 +9357,7 @@
         <xdr:cNvPr id="10254" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009172E9-8E0C-418B-84CE-F5818903C2A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6EA4C-3DE5-4975-A4B8-46227DEC82ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9382,7 +9390,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295E872F-0B18-4DFA-BEDF-6731F997F262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2C2F2A-A0D5-40B0-87AD-8A15048BEFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9425,7 +9433,7 @@
         <xdr:cNvPr id="13326" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199D1C91-CCB2-4860-8E75-7DEECF7F2A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E2E90E-8313-4DE6-8DE5-1C2CB0AF9B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9468,7 +9476,7 @@
         <xdr:cNvPr id="15374" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E422323-33A1-4812-9F85-43AF3BE16EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA72434-06E8-4B39-9520-85413DBF2722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9847,29 +9855,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="27" customWidth="1"/>
-    <col min="6" max="7" width="9" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -9878,604 +9886,604 @@
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="66">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="66">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63">
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63">
+      <c r="A7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63">
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63">
+      <c r="A10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="63">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63">
+      <c r="A12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="63">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="63">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="63">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="63">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="63">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="63">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="63">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="63">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="63">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="63">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="63">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="63">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="63">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="63">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="63">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="68">
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="71">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="E37" s="4"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84" t="s">
+      <c r="C38" s="86"/>
+      <c r="D38" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="82" t="s">
+      <c r="E38" s="88"/>
+      <c r="F38" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="86"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="55">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="39">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="40">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="56">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="36">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35" t="s">
+      <c r="E40" s="39">
+        <v>0</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="56">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="39">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="40">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="57">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="40">
-        <v>0</v>
-      </c>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="43">
+        <v>0</v>
+      </c>
+      <c r="F42" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="45">
         <v>0</v>
       </c>
     </row>
@@ -10506,7 +10514,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_1abc!A1</f>
         <v>美元兌人民幣期貨</v>
       </c>
@@ -10530,7 +10538,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_2abc!A1</f>
         <v>小型美元兌人民幣期貨</v>
       </c>
@@ -10552,7 +10560,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_2abc!A1</f>
         <v>小型美元兌人民幣期貨</v>
       </c>
@@ -10574,7 +10582,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_3abc!A1</f>
         <v>歐元兌美元期貨</v>
       </c>
@@ -10596,7 +10604,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_3abc!A1</f>
         <v>歐元兌美元期貨</v>
       </c>
@@ -10618,7 +10626,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_4abc!A1</f>
         <v>美元兌日圓期貨</v>
       </c>
@@ -10642,7 +10650,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_4abc!A1</f>
         <v>美元兌日圓期貨</v>
       </c>
@@ -10665,29 +10673,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="27" customWidth="1"/>
-    <col min="6" max="7" width="9" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -10696,604 +10704,604 @@
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="66">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="66">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63">
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63">
+      <c r="A7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63">
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63">
+      <c r="A10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="63">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63">
+      <c r="A12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="63">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="63">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="63">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="63">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="63">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="63">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="63">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="63">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="63">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="63">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="63">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="63">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="63">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="63">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="63">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="68">
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="71">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="E37" s="4"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84" t="s">
+      <c r="C38" s="86"/>
+      <c r="D38" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="82" t="s">
+      <c r="E38" s="88"/>
+      <c r="F38" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="86"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="55">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="39">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="40">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="56">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="36">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35" t="s">
+      <c r="E40" s="39">
+        <v>0</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="56">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="39">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="40">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="57">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="40">
-        <v>0</v>
-      </c>
-      <c r="F42" s="41" t="s">
+      <c r="E42" s="43">
+        <v>0</v>
+      </c>
+      <c r="F42" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="45">
         <v>0</v>
       </c>
     </row>
@@ -11323,29 +11331,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="27" customWidth="1"/>
-    <col min="6" max="7" width="9" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -11354,602 +11362,602 @@
       <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="63">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="66">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="63">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="66">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="63">
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="63">
+      <c r="A7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="63">
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63">
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63">
+      <c r="A10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="63">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="63">
+      <c r="A12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="63">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="63">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="63">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="63">
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="63">
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="63">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="63">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="63">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="63">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="63">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="63">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="63">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="63">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="63">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="63">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="63">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="68">
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="71">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="87" t="s">
+      <c r="E38" s="93"/>
+      <c r="F38" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="91"/>
+      <c r="G38" s="94"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="58">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="48">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="49">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="59">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="45">
-        <v>0</v>
-      </c>
-      <c r="F40" s="44" t="s">
+      <c r="E40" s="48">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="59">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="48">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="49">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="60">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="50" t="s">
+      <c r="E42" s="52">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="54">
         <v>0</v>
       </c>
     </row>
@@ -11979,29 +11987,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="27" customWidth="1"/>
-    <col min="6" max="7" width="9" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -12010,602 +12018,602 @@
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26">
+      <c r="A3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70">
+      <c r="A4" s="61"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71">
+      <c r="A5" s="61"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71">
+      <c r="A6" s="61"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71">
+      <c r="A7" s="61"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71">
+      <c r="A8" s="61"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="58"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71">
+      <c r="A9" s="61"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71">
+      <c r="A10" s="61"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71">
+      <c r="A11" s="61"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="58"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71">
+      <c r="A12" s="61"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="58"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71">
+      <c r="A13" s="61"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71">
+      <c r="A14" s="61"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="58"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71">
+      <c r="A15" s="61"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="58"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71">
+      <c r="A16" s="61"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71">
+      <c r="A17" s="61"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71">
+      <c r="A18" s="61"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="58"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="71">
+      <c r="A19" s="61"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="71">
+      <c r="A20" s="61"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="58"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="71">
+      <c r="A21" s="61"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="58"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="71">
+      <c r="A22" s="61"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="58"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="71">
+      <c r="A23" s="61"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="58"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="71">
+      <c r="A24" s="61"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="58"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="71">
+      <c r="A25" s="61"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="58"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="71">
+      <c r="A26" s="61"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="58"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="71">
+      <c r="A27" s="61"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="58"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="71">
+      <c r="A28" s="61"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="58"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="71">
+      <c r="A29" s="61"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="58"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="71">
+      <c r="A30" s="61"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="58"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="71">
+      <c r="A31" s="61"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="58"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="71">
+      <c r="A32" s="61"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="58"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="71">
+      <c r="A33" s="61"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="74">
+      <c r="A34" s="67"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="77">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="89" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="87" t="s">
+      <c r="E38" s="93"/>
+      <c r="F38" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="91"/>
+      <c r="G38" s="94"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="58">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="48">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="49">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="59">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="45">
-        <v>0</v>
-      </c>
-      <c r="F40" s="44" t="s">
+      <c r="E40" s="48">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="59">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="48">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="49">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="60">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="50" t="s">
+      <c r="E42" s="52">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="54">
         <v>0</v>
       </c>
     </row>
@@ -12635,636 +12643,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="7" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="7" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="96" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
         <f t="shared" ref="P6:P17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="10">
         <f t="shared" ref="Q6:Q17" si="1">SUM(C6,E6,G6,I6,K6,O6,M6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13">
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="15">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" s="17" customFormat="1">
-      <c r="A18" s="16" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="24">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="25">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="26">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13298,636 +13306,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="7" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="7" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="96" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="15">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" s="17" customFormat="1">
-      <c r="A18" s="16" t="s">
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="24">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="25">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="26">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13961,636 +13969,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="7" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="7" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="96" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="15">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" s="17" customFormat="1">
-      <c r="A18" s="16" t="s">
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="24">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="25">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="26">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14624,636 +14632,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="7" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8" style="5" customWidth="1"/>
-    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="7" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="96" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="97"/>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="100"/>
+      <c r="P2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101" t="s">
+      <c r="I3" s="107"/>
+      <c r="J3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="92" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="15">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" s="17" customFormat="1">
-      <c r="A18" s="16" t="s">
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="24">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="24">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="25">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="26">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -15288,13 +15296,13 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="36" t="str">
         <f>data_30393_1abc!A1</f>
         <v>美元兌人民幣期貨</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="33"/>
+      <c r="A2" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/PhoenixCI/Excel_Template/30393.xlsx
+++ b/PhoenixCI/Excel_Template/30393.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFDEFB5-46A4-4DAE-AF54-F3D79F13E9BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C54F010-92B1-4103-932F-5EE3E3660561}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30393_1(RHF)" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1058,16 +1059,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1093,9 +1091,6 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1150,13 +1145,10 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,13 +1231,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1258,19 +1250,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,7 +1271,7 @@
     <xf numFmtId="182" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,10 +1286,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,7 +1476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1D2-4EFD-A39F-D0E0859A3189}"/>
+              <c16:uniqueId val="{00000000-190B-4C8E-85C3-6F67BD10D737}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1534,7 +1526,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F1D2-4EFD-A39F-D0E0859A3189}"/>
+              <c16:uniqueId val="{00000001-190B-4C8E-85C3-6F67BD10D737}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1547,7 +1539,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541800424"/>
+        <c:axId val="743642184"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1602,7 +1594,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F1D2-4EFD-A39F-D0E0859A3189}"/>
+              <c16:uniqueId val="{00000002-190B-4C8E-85C3-6F67BD10D737}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,7 +1645,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F1D2-4EFD-A39F-D0E0859A3189}"/>
+              <c16:uniqueId val="{00000003-190B-4C8E-85C3-6F67BD10D737}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1671,7 +1663,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="541800424"/>
+        <c:axId val="743642184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1755,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541800424"/>
+        <c:crossAx val="743642184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1991,7 +1983,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9680-466C-A8A8-3DA623B0DFDD}"/>
+              <c16:uniqueId val="{00000000-E447-4DB2-B9B4-B0E89443FE95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2041,7 +2033,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9680-466C-A8A8-3DA623B0DFDD}"/>
+              <c16:uniqueId val="{00000001-E447-4DB2-B9B4-B0E89443FE95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2054,7 +2046,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542256792"/>
+        <c:axId val="743604464"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -2109,7 +2101,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9680-466C-A8A8-3DA623B0DFDD}"/>
+              <c16:uniqueId val="{00000002-E447-4DB2-B9B4-B0E89443FE95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2160,7 +2152,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9680-466C-A8A8-3DA623B0DFDD}"/>
+              <c16:uniqueId val="{00000003-E447-4DB2-B9B4-B0E89443FE95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2178,7 +2170,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="542256792"/>
+        <c:axId val="743604464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2262,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542256792"/>
+        <c:crossAx val="743604464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -2508,7 +2500,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000000-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2528,7 +2520,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000001-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2548,7 +2540,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000002-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2568,7 +2560,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000003-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2588,7 +2580,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000004-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2608,7 +2600,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000005-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2628,7 +2620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                <c16:uniqueId val="{00000006-CAAC-49D0-A1D4-644D652E3D83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2675,7 +2667,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000000-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2721,7 +2713,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000001-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2767,7 +2759,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000002-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2813,7 +2805,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000003-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2859,7 +2851,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000004-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2905,7 +2897,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DCD8-4044-8F0D-890DA57DEDF9}"/>
+                  <c16:uniqueId val="{00000005-CAAC-49D0-A1D4-644D652E3D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3007,7 +2999,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DCD8-4044-8F0D-890DA57DEDF9}"/>
+              <c16:uniqueId val="{00000007-CAAC-49D0-A1D4-644D652E3D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3200,7 +3192,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000000-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3220,7 +3212,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000001-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3240,7 +3232,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000002-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3260,7 +3252,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000003-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3280,7 +3272,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000004-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3300,7 +3292,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000005-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3320,7 +3312,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-DAB5-49B2-8C6D-59778E01B34C}"/>
+                <c16:uniqueId val="{00000006-C370-460F-BA9F-AC8663DFA99A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3367,7 +3359,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000000-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3413,7 +3405,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000001-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3459,7 +3451,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000002-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3505,7 +3497,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000003-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3551,7 +3543,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000004-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3597,7 +3589,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DAB5-49B2-8C6D-59778E01B34C}"/>
+                  <c16:uniqueId val="{00000005-C370-460F-BA9F-AC8663DFA99A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3699,7 +3691,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DAB5-49B2-8C6D-59778E01B34C}"/>
+              <c16:uniqueId val="{00000007-C370-460F-BA9F-AC8663DFA99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3892,7 +3884,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000000-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3912,7 +3904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000001-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3932,7 +3924,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000002-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3952,7 +3944,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000003-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3972,7 +3964,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000004-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3992,7 +3984,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000005-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4012,7 +4004,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-A24E-4ECC-9375-C4761C2B809B}"/>
+                <c16:uniqueId val="{00000006-59B7-4851-AE41-D53728BFB7BA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4059,7 +4051,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000000-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4105,7 +4097,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000001-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4151,7 +4143,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000002-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4197,7 +4189,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000003-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4243,7 +4235,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000004-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4289,7 +4281,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-A24E-4ECC-9375-C4761C2B809B}"/>
+                  <c16:uniqueId val="{00000005-59B7-4851-AE41-D53728BFB7BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4391,7 +4383,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A24E-4ECC-9375-C4761C2B809B}"/>
+              <c16:uniqueId val="{00000007-59B7-4851-AE41-D53728BFB7BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4584,7 +4576,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000000-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4604,7 +4596,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000001-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4624,7 +4616,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000002-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4644,7 +4636,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000003-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4664,7 +4656,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000004-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4684,7 +4676,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000005-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4704,7 +4696,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-1925-4A48-BF47-7214E0AF6C94}"/>
+                <c16:uniqueId val="{00000006-4E72-4852-A3BA-A0077C2362EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4751,7 +4743,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000000-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4797,7 +4789,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000001-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4843,7 +4835,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000002-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4889,7 +4881,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000003-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4935,7 +4927,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000004-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4981,7 +4973,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1925-4A48-BF47-7214E0AF6C94}"/>
+                  <c16:uniqueId val="{00000005-4E72-4852-A3BA-A0077C2362EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5083,7 +5075,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1925-4A48-BF47-7214E0AF6C94}"/>
+              <c16:uniqueId val="{00000007-4E72-4852-A3BA-A0077C2362EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5266,7 +5258,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FFD-4766-9E25-0A6F07DDAFAF}"/>
+              <c16:uniqueId val="{00000000-7549-4327-A08B-3078E50300AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5316,7 +5308,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FFD-4766-9E25-0A6F07DDAFAF}"/>
+              <c16:uniqueId val="{00000001-7549-4327-A08B-3078E50300AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5329,7 +5321,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541932272"/>
+        <c:axId val="743653336"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -5384,7 +5376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FFD-4766-9E25-0A6F07DDAFAF}"/>
+              <c16:uniqueId val="{00000002-7549-4327-A08B-3078E50300AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5435,7 +5427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0FFD-4766-9E25-0A6F07DDAFAF}"/>
+              <c16:uniqueId val="{00000003-7549-4327-A08B-3078E50300AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5453,7 +5445,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="541932272"/>
+        <c:axId val="743653336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5545,7 +5537,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541932272"/>
+        <c:crossAx val="743653336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -5783,7 +5775,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000000-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5803,7 +5795,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000001-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5823,7 +5815,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000002-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5843,7 +5835,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000003-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5863,7 +5855,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000004-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5883,7 +5875,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000005-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5903,7 +5895,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-7933-438F-BF35-8E2EAA57F520}"/>
+                <c16:uniqueId val="{00000006-ACF9-42B1-A19D-C94417EBECAF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5950,7 +5942,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000000-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5996,7 +5988,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000001-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6042,7 +6034,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000002-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6088,7 +6080,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000003-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6134,7 +6126,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000004-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6180,7 +6172,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7933-438F-BF35-8E2EAA57F520}"/>
+                  <c16:uniqueId val="{00000005-ACF9-42B1-A19D-C94417EBECAF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6282,7 +6274,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7933-438F-BF35-8E2EAA57F520}"/>
+              <c16:uniqueId val="{00000007-ACF9-42B1-A19D-C94417EBECAF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6475,7 +6467,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000000-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6495,7 +6487,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000001-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6515,7 +6507,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000002-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6535,7 +6527,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000003-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6555,7 +6547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000004-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6575,7 +6567,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000005-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6595,7 +6587,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-DA2B-423D-9776-D97F095513E9}"/>
+                <c16:uniqueId val="{00000006-004F-4C8B-AC80-67DE0F133E3C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6642,7 +6634,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000000-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6688,7 +6680,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000001-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6734,7 +6726,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000002-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6780,7 +6772,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000003-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6826,7 +6818,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000004-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6872,7 +6864,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DA2B-423D-9776-D97F095513E9}"/>
+                  <c16:uniqueId val="{00000005-004F-4C8B-AC80-67DE0F133E3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6974,7 +6966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DA2B-423D-9776-D97F095513E9}"/>
+              <c16:uniqueId val="{00000007-004F-4C8B-AC80-67DE0F133E3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7157,7 +7149,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D86-46E3-A27D-C9D59BE4B50E}"/>
+              <c16:uniqueId val="{00000000-4FC2-4A3E-ADC7-CEC87054B795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7207,7 +7199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D86-46E3-A27D-C9D59BE4B50E}"/>
+              <c16:uniqueId val="{00000001-4FC2-4A3E-ADC7-CEC87054B795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7220,7 +7212,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="372625008"/>
+        <c:axId val="743660224"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -7275,7 +7267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5D86-46E3-A27D-C9D59BE4B50E}"/>
+              <c16:uniqueId val="{00000002-4FC2-4A3E-ADC7-CEC87054B795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7326,7 +7318,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5D86-46E3-A27D-C9D59BE4B50E}"/>
+              <c16:uniqueId val="{00000003-4FC2-4A3E-ADC7-CEC87054B795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7344,7 +7336,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372625008"/>
+        <c:axId val="743660224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7436,7 +7428,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372625008"/>
+        <c:crossAx val="743660224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -7674,7 +7666,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000000-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7694,7 +7686,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000001-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7714,7 +7706,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000002-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7734,7 +7726,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000003-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7754,7 +7746,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000004-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7774,7 +7766,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000005-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7794,7 +7786,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-BF09-4A36-BB59-40000325E7C4}"/>
+                <c16:uniqueId val="{00000006-13A4-4DA7-B99D-E8FC4A0949AE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -7841,7 +7833,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000000-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7887,7 +7879,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000001-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7933,7 +7925,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000002-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7979,7 +7971,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000003-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8025,7 +8017,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000004-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8071,7 +8063,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BF09-4A36-BB59-40000325E7C4}"/>
+                  <c16:uniqueId val="{00000005-13A4-4DA7-B99D-E8FC4A0949AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8173,7 +8165,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BF09-4A36-BB59-40000325E7C4}"/>
+              <c16:uniqueId val="{00000007-13A4-4DA7-B99D-E8FC4A0949AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8366,7 +8358,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000000-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8386,7 +8378,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000001-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8406,7 +8398,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000002-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8426,7 +8418,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000003-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8446,7 +8438,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000004-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8466,7 +8458,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000005-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8486,7 +8478,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                <c16:uniqueId val="{00000006-834A-4B24-986A-A14BE3C500EF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -8533,7 +8525,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000000-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8579,7 +8571,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000001-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8625,7 +8617,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000002-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8671,7 +8663,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000003-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8717,7 +8709,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000004-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8763,7 +8755,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+                  <c16:uniqueId val="{00000005-834A-4B24-986A-A14BE3C500EF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -8865,7 +8857,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D45F-4CC2-A18B-EB0AC6123C1E}"/>
+              <c16:uniqueId val="{00000007-834A-4B24-986A-A14BE3C500EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9033,7 +9025,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBBA19D-1CC9-4E6B-A7B7-A7584701040D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180AD098-E9A9-499A-9A8D-8B08865EF9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9066,7 +9058,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DF18C5-72EF-4AF0-B94C-4D569D06843F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92EC613-0E64-4574-912C-C41799F73538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9109,7 +9101,7 @@
         <xdr:cNvPr id="18446" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CC792B-E625-44F1-93B9-14D2CF2F6FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A95A0D-7763-4F12-8920-57EA6DF5072E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9152,7 +9144,7 @@
         <xdr:cNvPr id="20494" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB511EE-4C1C-48D2-9475-63EBB4608A1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFDE90B-A5DF-4DEC-8A3C-85123CF779A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9195,7 +9187,7 @@
         <xdr:cNvPr id="3086" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D527C5-2583-45D6-AA0E-3894AA5AEF51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2602D603-4C56-426A-AB7A-3E6348916386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9230,7 @@
         <xdr:cNvPr id="5134" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FC7620-8F94-48F0-A6D9-CD50679865C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7120BB-546F-4089-9467-908707062EEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,7 +9263,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4260C0B5-3D7B-440E-B226-CCAB37F79E09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263CA4B8-56E0-48E7-9F34-476BD411FE3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9314,7 +9306,7 @@
         <xdr:cNvPr id="8206" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B7B78-4790-40C3-9F4D-6CC20B1B5E6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A37D75-41DE-4A08-B8A3-5C15F54EA2CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9357,7 +9349,7 @@
         <xdr:cNvPr id="10254" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD6EA4C-3DE5-4975-A4B8-46227DEC82ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009172E9-8E0C-418B-84CE-F5818903C2A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9390,7 +9382,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2C2F2A-A0D5-40B0-87AD-8A15048BEFE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295E872F-0B18-4DFA-BEDF-6731F997F262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9433,7 +9425,7 @@
         <xdr:cNvPr id="13326" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E2E90E-8313-4DE6-8DE5-1C2CB0AF9B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199D1C91-CCB2-4860-8E75-7DEECF7F2A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9476,7 +9468,7 @@
         <xdr:cNvPr id="15374" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA72434-06E8-4B39-9520-85413DBF2722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E422323-33A1-4812-9F85-43AF3BE16EB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9855,29 +9847,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9" style="27" customWidth="1"/>
+    <col min="6" max="7" width="9" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -9886,604 +9878,604 @@
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28">
+      <c r="A3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="66">
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="63">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="66">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="63">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="66">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="66">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="66">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="66">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="66">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="66">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="66">
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="66">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="66">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="66">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="66">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="66">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="66">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="66">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="66">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="66">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="66">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="66">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="66">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="66">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="66">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="66">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="66">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="66">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="66">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="71">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="68">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="E37" s="5"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="85" t="s">
+      <c r="E38" s="85"/>
+      <c r="F38" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="89"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="52">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="36">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="37">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="53">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="39">
-        <v>0</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="E40" s="36">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="53">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="36">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="37">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="54">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="43">
-        <v>0</v>
-      </c>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="40">
+        <v>0</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10514,7 +10506,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_1abc!A1</f>
         <v>美元兌人民幣期貨</v>
       </c>
@@ -10538,7 +10530,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_2abc!A1</f>
         <v>小型美元兌人民幣期貨</v>
       </c>
@@ -10560,7 +10552,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_2abc!A1</f>
         <v>小型美元兌人民幣期貨</v>
       </c>
@@ -10582,7 +10574,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_3abc!A1</f>
         <v>歐元兌美元期貨</v>
       </c>
@@ -10604,7 +10596,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_3abc!A1</f>
         <v>歐元兌美元期貨</v>
       </c>
@@ -10626,7 +10618,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_4abc!A1</f>
         <v>美元兌日圓期貨</v>
       </c>
@@ -10650,7 +10642,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_4abc!A1</f>
         <v>美元兌日圓期貨</v>
       </c>
@@ -10673,29 +10665,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9" style="27" customWidth="1"/>
+    <col min="6" max="7" width="9" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -10704,604 +10696,604 @@
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28">
+      <c r="A3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="66">
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="63">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="66">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="63">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="66">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="66">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="66">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="66">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="66">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="66">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="66">
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="66">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="66">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="66">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="66">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="66">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="66">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="66">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="66">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="66">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="66">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="66">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="66">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="66">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="66">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="66">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="66">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="66">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="66">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="71">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="68">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
-      <c r="E37" s="5"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="85" t="s">
+      <c r="E38" s="85"/>
+      <c r="F38" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="89"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="52">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="36">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="37">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="37" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="53">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="39">
-        <v>0</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="E40" s="36">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="53">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="36">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="37">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="54">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="43">
-        <v>0</v>
-      </c>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="40">
+        <v>0</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11331,29 +11323,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9" style="27" customWidth="1"/>
+    <col min="6" max="7" width="9" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -11362,602 +11354,602 @@
       <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28">
+      <c r="A3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="66">
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="63">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="66">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="63">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="66">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="66">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="66">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="66">
+      <c r="A9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="66">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="66">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="66">
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="66">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="66">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="66">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="66">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="66">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="66">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="66">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="66">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="66">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="66">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="66">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="66">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="66">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="66">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="66">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="66">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="66">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="66">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="66">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="71">
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="68">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="88"/>
+      <c r="D38" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="90" t="s">
+      <c r="E38" s="90"/>
+      <c r="F38" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="94"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="55">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="45">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="46">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="56">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="48">
-        <v>0</v>
-      </c>
-      <c r="F40" s="47" t="s">
+      <c r="E40" s="45">
+        <v>0</v>
+      </c>
+      <c r="F40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="56">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="45">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="46">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="57">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="52">
-        <v>0</v>
-      </c>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="54">
+      <c r="G42" s="51">
         <v>0</v>
       </c>
     </row>
@@ -11987,29 +11979,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9" style="27" customWidth="1"/>
+    <col min="6" max="7" width="9" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -12018,602 +12010,602 @@
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28">
+      <c r="A3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73">
+      <c r="A4" s="58"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74">
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74">
+      <c r="A5" s="58"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74">
+      <c r="A6" s="58"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74">
+      <c r="A7" s="58"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74">
+      <c r="A8" s="58"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="61"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74">
+      <c r="A9" s="58"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="61"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74">
+      <c r="A10" s="58"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="61"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74">
+      <c r="A11" s="58"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="61"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74">
+      <c r="A12" s="58"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="61"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74">
+      <c r="A13" s="58"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="61"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74">
+      <c r="A14" s="58"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74">
+      <c r="A15" s="58"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="61"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74">
+      <c r="A16" s="58"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="61"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74">
+      <c r="A17" s="58"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="61"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74">
+      <c r="A18" s="58"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="61"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="74">
+      <c r="A19" s="58"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="74">
+      <c r="A20" s="58"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="61"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="74">
+      <c r="A21" s="58"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="61"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="74">
+      <c r="A22" s="58"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="61"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="74">
+      <c r="A23" s="58"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="61"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="74">
+      <c r="A24" s="58"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="61"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="74">
+      <c r="A25" s="58"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="61"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="74">
+      <c r="A26" s="58"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="61"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="74">
+      <c r="A27" s="58"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="61"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="74">
+      <c r="A28" s="58"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="74">
+      <c r="A29" s="58"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="74">
+      <c r="A30" s="58"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="61"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="74">
+      <c r="A31" s="58"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="61"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="74">
+      <c r="A32" s="58"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="74">
+      <c r="A33" s="58"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="77">
+      <c r="A34" s="64"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="74">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92" t="s">
+      <c r="C38" s="88"/>
+      <c r="D38" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="90" t="s">
+      <c r="E38" s="90"/>
+      <c r="F38" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="94"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="55">
         <f>COUNTIF(C5:C34,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="45">
         <f>IF(C42=0,0,ROUND(SUM(D5:D34) / C42,0))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="46">
         <f>IF(C42=0,0,ROUND(SUM(E5:E34)/C42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="56">
         <f>COUNTIF(C5:C34,"=0")</f>
         <v>30</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="48">
-        <v>0</v>
-      </c>
-      <c r="F40" s="47" t="s">
+      <c r="E40" s="45">
+        <v>0</v>
+      </c>
+      <c r="F40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="56">
         <f>COUNTIF(C5:C34,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="45">
         <f>E39-E40</f>
         <v>0</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="46">
         <f>G39-G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="57">
         <f>COUNT(B5:B34)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="52">
-        <v>0</v>
-      </c>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="54">
+      <c r="G42" s="51">
         <v>0</v>
       </c>
     </row>
@@ -12643,636 +12635,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="7" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="99" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="O2" s="97"/>
+      <c r="P2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="103"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f t="shared" ref="P6:P17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" ref="Q6:Q17" si="1">SUM(C6,E6,G6,I6,K6,O6,M6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="A7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="A8" s="19"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15">
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
-      <c r="A18" s="18" t="s">
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" s="17" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="22">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="22">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="23">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13306,636 +13298,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="7" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="99" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="O2" s="97"/>
+      <c r="P2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="103"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
-      <c r="A18" s="18" t="s">
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" s="17" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="22">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="22">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="23">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13969,636 +13961,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="7" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="99" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="O2" s="97"/>
+      <c r="P2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="103"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
-      <c r="A18" s="18" t="s">
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" s="17" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="22">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="22">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="23">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14632,636 +14624,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="7" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="7" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="99" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="99" t="s">
+      <c r="O2" s="97"/>
+      <c r="P2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="104" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104" t="s">
+      <c r="E3" s="102"/>
+      <c r="F3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="104"/>
+      <c r="J3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="103"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
+      <c r="A6" s="19"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" s="14" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" s="19" customFormat="1">
-      <c r="A18" s="18" t="s">
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" s="17" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="22">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="22">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="22">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="23">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="24">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -15296,13 +15288,13 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="str">
+      <c r="A1" s="33" t="str">
         <f>data_30393_1abc!A1</f>
         <v>美元兌人民幣期貨</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
